--- a/data/hotels_by_city/Dallas/Dallas_shard_555.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,466 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r555389595-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>55815</t>
+  </si>
+  <si>
+    <t>244352</t>
+  </si>
+  <si>
+    <t>555389595</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Fine for overnight</t>
+  </si>
+  <si>
+    <t>This Motel 6 (There are actually two within two miles of each other) is on the west-bound side of the Freeway. The reception staff person was very nice and helpful. The room was tidy, but didn't seem clean and had an oily feel on the floor - with shoes, socks, or bare feet, we left prints in the oil. The room had a very musty/smoky smell. The beds were fine, but unfortunately because of the smell of the room and the feel of the floor, we couldn't trust that the linens were clean. That said, all else seemed nice and again the reception people were very nice. It's an OK place to stay overnight for anyone who can handle just the basics.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Motel 6 (There are actually two within two miles of each other) is on the west-bound side of the Freeway. The reception staff person was very nice and helpful. The room was tidy, but didn't seem clean and had an oily feel on the floor - with shoes, socks, or bare feet, we left prints in the oil. The room had a very musty/smoky smell. The beds were fine, but unfortunately because of the smell of the room and the feel of the floor, we couldn't trust that the linens were clean. That said, all else seemed nice and again the reception people were very nice. It's an OK place to stay overnight for anyone who can handle just the basics.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r544888560-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>544888560</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>More like the "Motel Sex"</t>
+  </si>
+  <si>
+    <t>I spent a week at this location.  It was pretty much what I expected from the Motel 6.  The heater did not get that hot.  Even though I cranked it up to 80, it was maybe 65 in the room.  The shower did not get hot -- It just barely got lukewarm.  For three nights of my stay I got no sleep.  Three nights in a row, three different couples decided to have sex in the room next to mine.  All night I had to listen to the slapping and moaning and banging and name screaming.  They were different names each night, so I know they were different people.  I tried to complain to the manager, but they were having lunch at the time and too busy to be bothered by me.  When I told the front desk lady about the sex sounds the night before, she told me "that's what motels are for.".  Silly me.  I was there to sleep.  She said if it happened again they could move me to a different room, but it would probably just happen again.  I suggested they beef up the sound proofing between rooms.  She just smiled, shrugged, and said "This is Motel 6."  I packed up my belongings and went elsewhere so I could get some sleep finally.  What a miserable stay.  I would definitely NOT recommend this motel to families with young children.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Dallas - Euless, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>I spent a week at this location.  It was pretty much what I expected from the Motel 6.  The heater did not get that hot.  Even though I cranked it up to 80, it was maybe 65 in the room.  The shower did not get hot -- It just barely got lukewarm.  For three nights of my stay I got no sleep.  Three nights in a row, three different couples decided to have sex in the room next to mine.  All night I had to listen to the slapping and moaning and banging and name screaming.  They were different names each night, so I know they were different people.  I tried to complain to the manager, but they were having lunch at the time and too busy to be bothered by me.  When I told the front desk lady about the sex sounds the night before, she told me "that's what motels are for.".  Silly me.  I was there to sleep.  She said if it happened again they could move me to a different room, but it would probably just happen again.  I suggested they beef up the sound proofing between rooms.  She just smiled, shrugged, and said "This is Motel 6."  I packed up my belongings and went elsewhere so I could get some sleep finally.  What a miserable stay.  I would definitely NOT recommend this motel to families with young children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r529316388-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>529316388</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Do not recommend</t>
+  </si>
+  <si>
+    <t>Horrible would not recommend staying here. Ice machine didn't work, no microwave on property and ac barely worked. We left in the middle of the night. One of the worst hotels that I had ever stayed in</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r511998880-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>511998880</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>???????</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 while working at the airport. It looks like it has just been remodeled in the rooms. But the management is really bad the manager is rude and doesn't care about her guest. Housekeepers are really no to good I came back to my room at 7pm and it was not done yet and they were still cleaning.There was no coffee in the lobby two mornings in a row. I don't know if I will stay here net month when I come back to work here. Maybe if they got a manager who is older and cares about the guest and the hotel it would be a good place to stay.I will give them one more chance but if not better there is a old La Quinta down the highway that is now a Motel 6 I will move there next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Dallas - Euless, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 while working at the airport. It looks like it has just been remodeled in the rooms. But the management is really bad the manager is rude and doesn't care about her guest. Housekeepers are really no to good I came back to my room at 7pm and it was not done yet and they were still cleaning.There was no coffee in the lobby two mornings in a row. I don't know if I will stay here net month when I come back to work here. Maybe if they got a manager who is older and cares about the guest and the hotel it would be a good place to stay.I will give them one more chance but if not better there is a old La Quinta down the highway that is now a Motel 6 I will move there next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r497385999-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>497385999</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>OK for a quick night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front desk staff was very nice, room was clean, shower was hot, and the room was cheap. This Motel 6 was just about what I expected. Tip - sleep on the back side of the motel if highway traffic noise bothers you. I didn't hear much all night. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r469733196-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>469733196</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>A cheap place to lay over for a flight.</t>
+  </si>
+  <si>
+    <t>A good place to layover for an early morning flight. Needed somewhere cheap and close to the airport, this filled the bill. The room was clean and the staff was good. My wife and I felt safe at this location and would use it again for the same purpose.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r434445369-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>434445369</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For🤔🤔</t>
+  </si>
+  <si>
+    <t>Where do I begin? Upon arrival front desk clerk was cordial. When booking asked for downstairs, was told it wouldn't be a problem, only to arrive and there were no available rooms downstairs. Strike 1 upon entering our room, stains on both bedspreads and on sheets. Strike 2 noise, noise and more noise. Neighbors both IP and downstairs pretty much partied up until 3 in the AM. I was told that we would have microwave and fridge in room. Lies lies all lies!!!! I was so disappointed with the hotel , I've never had these problems with Motel 6 before ......I will not frequent this hotel again when visiting Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Where do I begin? Upon arrival front desk clerk was cordial. When booking asked for downstairs, was told it wouldn't be a problem, only to arrive and there were no available rooms downstairs. Strike 1 upon entering our room, stains on both bedspreads and on sheets. Strike 2 noise, noise and more noise. Neighbors both IP and downstairs pretty much partied up until 3 in the AM. I was told that we would have microwave and fridge in room. Lies lies all lies!!!! I was so disappointed with the hotel , I've never had these problems with Motel 6 before ......I will not frequent this hotel again when visiting Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r430356688-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>430356688</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Really nice stay</t>
+  </si>
+  <si>
+    <t>I think the motel provided really good quality of service and accommodation for the money I paid. That is, of course, considering Dallas area prices. The only thing that I could note is that it is great that you guys have the labels for save water by hanging your towels. However, the housekeepers changed my towels every single day even if they were barely used. So maybe there should be a specialized green training for that so the housekeepers are aware of their options and be more eco-friendly. The other thing is: do not purchase the internet. This is the only thing I can say I am not satisfied with. It was EXTREMELY slow, and it is not free. Maybe it would not bother me as much if I did not pay extra for it. Another thing that occurred but I did not report was the loud neighbors upstairs. However, great condition of the room, really clean every day. Be prepared to have to activate your key card every day.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I think the motel provided really good quality of service and accommodation for the money I paid. That is, of course, considering Dallas area prices. The only thing that I could note is that it is great that you guys have the labels for save water by hanging your towels. However, the housekeepers changed my towels every single day even if they were barely used. So maybe there should be a specialized green training for that so the housekeepers are aware of their options and be more eco-friendly. The other thing is: do not purchase the internet. This is the only thing I can say I am not satisfied with. It was EXTREMELY slow, and it is not free. Maybe it would not bother me as much if I did not pay extra for it. Another thing that occurred but I did not report was the loud neighbors upstairs. However, great condition of the room, really clean every day. Be prepared to have to activate your key card every day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r415176731-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>415176731</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was perfect. It was clean -- spotless! Nice renovated room, plain but fresh and comfortable.Staff was friendly, helpful, efficient. Location is convenient to ATT Staduim, baseball stadium, and also only about 15 min from downtown Dallas. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r394124038-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>394124038</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get what you pay for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was clean and recently remodeled.  It has a nice pool too.The wifi that you pay 4.99 for is for only one device. Not very happy about that.The rooms do not have an iron or a refrigerator.   The air conditioning barely keeps up with the Texas heat. I was  there for 4 nights.  Every day when I got back from my meetings I had go to the office to have the room key reset.  </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r391187927-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>391187927</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Good Airport Hotel</t>
+  </si>
+  <si>
+    <t>I needed a place to stay for one night prior to an early departure from DFW.  Based on the affordable rate and the location (ten minutes from airport), I chose this property.  The desk staff were friendly and helpful.  The room was very comfortable with little wasted space.  The wooden floor was much better than the dirty carpets of other hotels, although it could stand to be mopped.  The bed was comfortable and provided a good night's sleep.  The shower had good water pressure, while the sink pressure was far too low.  The light in the bathroom was on its last legs, but it worked for my stay.  Bath linens were a mixed bag, with one towel stained by too much use.  The motel had no elevator; not a problem for me, but could be a turn-off for those who need it.  The wi-fi was not free, but the cost was minimal considering the low rate for the room itself.  One problem was construction in the area.  The nearest bridge over the highway is being rebuilt, leading to the most convoluted detour I have seen.  Beware if you're on the wrong side of the highway from the motel!  Overall, this is certainly an excellent spot for a night and quick access to DFW, and I would consider a future stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I needed a place to stay for one night prior to an early departure from DFW.  Based on the affordable rate and the location (ten minutes from airport), I chose this property.  The desk staff were friendly and helpful.  The room was very comfortable with little wasted space.  The wooden floor was much better than the dirty carpets of other hotels, although it could stand to be mopped.  The bed was comfortable and provided a good night's sleep.  The shower had good water pressure, while the sink pressure was far too low.  The light in the bathroom was on its last legs, but it worked for my stay.  Bath linens were a mixed bag, with one towel stained by too much use.  The motel had no elevator; not a problem for me, but could be a turn-off for those who need it.  The wi-fi was not free, but the cost was minimal considering the low rate for the room itself.  One problem was construction in the area.  The nearest bridge over the highway is being rebuilt, leading to the most convoluted detour I have seen.  Beware if you're on the wrong side of the highway from the motel!  Overall, this is certainly an excellent spot for a night and quick access to DFW, and I would consider a future stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r372847907-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>372847907</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Really not bad for a Motel 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Motel 6 has been recently renovated. They got rid of those gross carpets and got wooden floors. All the other features in the room, aside from the bathroom, was recently updated as well. The floors and towels were pretty clean, and the bed was comfortable. It's also less than a 10 minute drive to the airport. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r361442424-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>361442424</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff and clean rooms</t>
+  </si>
+  <si>
+    <t>Having spent the night sleeping at the airport we decided to see if we could check into our room early. We arrived at the motel at around 7am. At first the lady on the desk told us she couldn't get us into until 3pm. So we left and hung out at star bucks for an hr or so. We must have looked like crap because when we went back to the motel Euginie the lady at reception told us "y'all just wait their I am having a room made up for you now"Music to our ears. Our room was clean and the staff more than helpful.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r355269868-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>355269868</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>No happy</t>
+  </si>
+  <si>
+    <t>The front desk personnel have terrible attitudes and speak disrespecfylly to you. Also the rooms are done quickly,unefficiently and aren't ckeaned thoroughly. The water smells funny from the faucet and shower, wouldn't recommend anyone to drink it. Room rates are low, but so is the service.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Dallas - Euless, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>The front desk personnel have terrible attitudes and speak disrespecfylly to you. Also the rooms are done quickly,unefficiently and aren't ckeaned thoroughly. The water smells funny from the faucet and shower, wouldn't recommend anyone to drink it. Room rates are low, but so is the service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r353463383-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>353463383</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Best 2 star motel I've found so far in the area</t>
+  </si>
+  <si>
+    <t>I have a relative in Arlington who I visit at least once but usually twice a year.  I've been looking for a decent two star (inexpensive) hotel or motel.  I've tried two other places that either had niggling issues (e.g. a toilet that ran all night), or had a general bleh / ick factor.  I haven't stayed in a Motel 6 since the late 1990s, so decided to try them again.  I saw this one was rated better than the one across the 183 freeway.
+(I thought I'd already reviewed this motel after my first stay, but looks like I didn't, so...)  My first stay there was in Oct. 2015.  I asked for a non-smoking room, but it smelled like cigarette smoke.  Like it had wafted through the venting system from next door.  The night front desk clerk said I was five rooms away from the nearest smoking room.  He offered to move me, but I’d already unpacked and didn’t want to bother.  So he came to my room with a spray deodorizer.  It helped, as did running the A/C.  The room was clean, everything worked, staff was friendly.  
+When I went to book my trip for this past week, I again did a search for a budget motel (under $60/night), with at least 3 stars in reviews.  This was about the only one!  If it was under $60, the reviews were “Fair” at best.  I've looked as far north...I have a relative in Arlington who I visit at least once but usually twice a year.  I've been looking for a decent two star (inexpensive) hotel or motel.  I've tried two other places that either had niggling issues (e.g. a toilet that ran all night), or had a general bleh / ick factor.  I haven't stayed in a Motel 6 since the late 1990s, so decided to try them again.  I saw this one was rated better than the one across the 183 freeway.(I thought I'd already reviewed this motel after my first stay, but looks like I didn't, so...)  My first stay there was in Oct. 2015.  I asked for a non-smoking room, but it smelled like cigarette smoke.  Like it had wafted through the venting system from next door.  The night front desk clerk said I was five rooms away from the nearest smoking room.  He offered to move me, but I’d already unpacked and didn’t want to bother.  So he came to my room with a spray deodorizer.  It helped, as did running the A/C.  The room was clean, everything worked, staff was friendly.  When I went to book my trip for this past week, I again did a search for a budget motel (under $60/night), with at least 3 stars in reviews.  This was about the only one!  If it was under $60, the reviews were “Fair” at best.  I've looked as far north as Hurst, as far east as Grand Prairie - basically anything within 20 minutes of my relative's location in Arlington.  I couldn't find anything that looked better than this motel, so I stayed there again.  This time, the room only faintly smelled of smoke, and the A/C quickly dispelled the odor.  Again, everything was clean and in working order.I sometimes wonder / worry about all the people hanging around the motel, but then I remember that always seems to be the case at Motel 6's.  I was upstairs, and when people walked by my room, the floor shook with their steps.  I was worried people would be rowdy and walking around all hours of the night, but it really quieted down each night around 11p.  I always use earplugs when I travel, and once I fell asleep - I stayed asleep.  So at least for me, I felt safe enough, and noise was not a problem during normal quiet hours.  (Except the last night - there are houses behind the motel.  One house was having a party, I think to watch an HBO fight.  LOTS of people, very loud, cheering throughout the evening...and I was wondering if they'd ever stop when it didn't quiet down at 11p.  I don't know if the cops came or what, but it got quiet really suddenly right around midnight...So - that was not the motel clientele!)I miss coffee makers in the room, hotel toiletries, and decent towels.  But Motel 6 has stayed true to what they do, and for around $40 a night – if it’s clean, functional and safe – you really can’t complain.  I’ll always look for a new place to try if they have a good deal and have reviews of at least three stars, but when that fails – I’ll consider this my "I know what to expect' Go To place.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have a relative in Arlington who I visit at least once but usually twice a year.  I've been looking for a decent two star (inexpensive) hotel or motel.  I've tried two other places that either had niggling issues (e.g. a toilet that ran all night), or had a general bleh / ick factor.  I haven't stayed in a Motel 6 since the late 1990s, so decided to try them again.  I saw this one was rated better than the one across the 183 freeway.
+(I thought I'd already reviewed this motel after my first stay, but looks like I didn't, so...)  My first stay there was in Oct. 2015.  I asked for a non-smoking room, but it smelled like cigarette smoke.  Like it had wafted through the venting system from next door.  The night front desk clerk said I was five rooms away from the nearest smoking room.  He offered to move me, but I’d already unpacked and didn’t want to bother.  So he came to my room with a spray deodorizer.  It helped, as did running the A/C.  The room was clean, everything worked, staff was friendly.  
+When I went to book my trip for this past week, I again did a search for a budget motel (under $60/night), with at least 3 stars in reviews.  This was about the only one!  If it was under $60, the reviews were “Fair” at best.  I've looked as far north...I have a relative in Arlington who I visit at least once but usually twice a year.  I've been looking for a decent two star (inexpensive) hotel or motel.  I've tried two other places that either had niggling issues (e.g. a toilet that ran all night), or had a general bleh / ick factor.  I haven't stayed in a Motel 6 since the late 1990s, so decided to try them again.  I saw this one was rated better than the one across the 183 freeway.(I thought I'd already reviewed this motel after my first stay, but looks like I didn't, so...)  My first stay there was in Oct. 2015.  I asked for a non-smoking room, but it smelled like cigarette smoke.  Like it had wafted through the venting system from next door.  The night front desk clerk said I was five rooms away from the nearest smoking room.  He offered to move me, but I’d already unpacked and didn’t want to bother.  So he came to my room with a spray deodorizer.  It helped, as did running the A/C.  The room was clean, everything worked, staff was friendly.  When I went to book my trip for this past week, I again did a search for a budget motel (under $60/night), with at least 3 stars in reviews.  This was about the only one!  If it was under $60, the reviews were “Fair” at best.  I've looked as far north as Hurst, as far east as Grand Prairie - basically anything within 20 minutes of my relative's location in Arlington.  I couldn't find anything that looked better than this motel, so I stayed there again.  This time, the room only faintly smelled of smoke, and the A/C quickly dispelled the odor.  Again, everything was clean and in working order.I sometimes wonder / worry about all the people hanging around the motel, but then I remember that always seems to be the case at Motel 6's.  I was upstairs, and when people walked by my room, the floor shook with their steps.  I was worried people would be rowdy and walking around all hours of the night, but it really quieted down each night around 11p.  I always use earplugs when I travel, and once I fell asleep - I stayed asleep.  So at least for me, I felt safe enough, and noise was not a problem during normal quiet hours.  (Except the last night - there are houses behind the motel.  One house was having a party, I think to watch an HBO fight.  LOTS of people, very loud, cheering throughout the evening...and I was wondering if they'd ever stop when it didn't quiet down at 11p.  I don't know if the cops came or what, but it got quiet really suddenly right around midnight...So - that was not the motel clientele!)I miss coffee makers in the room, hotel toiletries, and decent towels.  But Motel 6 has stayed true to what they do, and for around $40 a night – if it’s clean, functional and safe – you really can’t complain.  I’ll always look for a new place to try if they have a good deal and have reviews of at least three stars, but when that fails – I’ll consider this my "I know what to expect' Go To place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r315489569-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>315489569</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I was very impressed by the staff and the cleanliness of the area, even having staff clean the street side of the sidewalk. Even better was the remodeled rooms, the helpful check in staff not to mention a very reasonable rate. I will stay there anytime I'm in the area.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r294516770-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>294516770</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Cost efficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here one night before flying out of DFW.  It's not fancy, but for 50 bucks what do you expect.  They hard hardwood floors, which was nice because a lot of times the carpet is so dingy.  It was clean and I felt safe.  The town is kinda small, but lots of fast food around.  We ate at an amazing Italian restaurant around the corner.  I would stay here again for an evening. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r285026246-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>285026246</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>I would just like to say that the pool was clean. The room and bedding was clean but the towles that is a different story!Lots of vending machine's and good coffee. I do not know the name of the man who worked front desk mostly at night but he was great! He was helpful, caring , and nice! The woman who worked front desk mostly during the day. I believe her name was Hema. She was the complete opposite.She put me in a room with a broken deadbolt and rhan a room with a leaking air conditioner. When I made remarks or coments about the rooms she was short and extremely RUDE , and unhelpful to say the least! Also, I asked her if I could get a wake up call at 7 am. I did not get a wake up call until after 10 am after I had already woke up and asked why I did not recieve it.The cleaning ladies were amazing and came by daily to see if you need anything. I did however have a few issues using the phone when it came to dialing out but that could have been the phone service all and all it was a nice place with the exception of Hema.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I would just like to say that the pool was clean. The room and bedding was clean but the towles that is a different story!Lots of vending machine's and good coffee. I do not know the name of the man who worked front desk mostly at night but he was great! He was helpful, caring , and nice! The woman who worked front desk mostly during the day. I believe her name was Hema. She was the complete opposite.She put me in a room with a broken deadbolt and rhan a room with a leaking air conditioner. When I made remarks or coments about the rooms she was short and extremely RUDE , and unhelpful to say the least! Also, I asked her if I could get a wake up call at 7 am. I did not get a wake up call until after 10 am after I had already woke up and asked why I did not recieve it.The cleaning ladies were amazing and came by daily to see if you need anything. I did however have a few issues using the phone when it came to dialing out but that could have been the phone service all and all it was a nice place with the exception of Hema.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r230790530-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>230790530</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Worthy of a visit.</t>
+  </si>
+  <si>
+    <t>Stayed here before flying from DFW.It was clean, well maintained, safe, convenient, and reasonably priced.The clerk was courteous, friendly, and helpful.The motel is close to the airport and also to a variety of restaurants of varying quality and pricing.My room was immediately adjacent to the pool which made it a bit ...busy? Nothing to complain about.Would definitely stay again.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r211017366-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>211017366</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>You have to PAY for WIFI????</t>
+  </si>
+  <si>
+    <t>Very plain. No frills... NONE. It does have a pool, but the area doesn't feel very private or safe. A lot of traffic runs through the back when the sun goes down. It feels like drug deals. The cherry on top was the fact that WIFI IS NOT FREE. Say what??? They want to charge you 3 bucks for WIFI. The rooms smell. The beds are think. I have stayed in other Motel 6's where the beds were awesome., the WIFI was  free and the rooms feelt a lot cleaner and more comfortable. I would say it's worth the 40 bucks but the nice Motel 6's I have stayed in were the same price. Find something better. It's a room if you absolutely have to. But, you can get better for the same price. All of thee high rated reviews must be the owners. It does not feel or smell clean. It is not quiet. It does not feel very safe at night. Here is a review.. .it's worse in person! The ONLY thing good about it is that it is down the street from North Main BBQ. Very good.. but only open Fri, Sat and SunMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Very plain. No frills... NONE. It does have a pool, but the area doesn't feel very private or safe. A lot of traffic runs through the back when the sun goes down. It feels like drug deals. The cherry on top was the fact that WIFI IS NOT FREE. Say what??? They want to charge you 3 bucks for WIFI. The rooms smell. The beds are think. I have stayed in other Motel 6's where the beds were awesome., the WIFI was  free and the rooms feelt a lot cleaner and more comfortable. I would say it's worth the 40 bucks but the nice Motel 6's I have stayed in were the same price. Find something better. It's a room if you absolutely have to. But, you can get better for the same price. All of thee high rated reviews must be the owners. It does not feel or smell clean. It is not quiet. It does not feel very safe at night. Here is a review.. .it's worse in person! The ONLY thing good about it is that it is down the street from North Main BBQ. Very good.. but only open Fri, Sat and SunMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r200962875-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>200962875</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Not your typical Motel 6</t>
+  </si>
+  <si>
+    <t>I spent approx 120+ days on the road in the past 12 mths. The Euless, Tx. Motel 6 should be the standard other Motel 6 locations should be judged.The manager....Cyndy (sp?) runs her location, as well if not better than some 3-4 star properties. Her staff (the ones I've dealt with...Lucy, Retha and Jeremiah are outstanding, friendly, helpful, and just a pleasant group of individuals. Apparently, properly trained, or chosen for their skills dealing with the public(?) just nice people.I hope Motel 6 appreciates this manager and her "teams" efforts to make me and the other guest feel welcome, and that nothing is beyond their ability or willingness to help. Nicely done, Motel 6. Most people love to complain, but I could not resist the chance to share my opinion about my experience. If I'm ever back in this area, I will be back. I hope this review helps future travelers.DjMoreShow less</t>
+  </si>
+  <si>
+    <t>I spent approx 120+ days on the road in the past 12 mths. The Euless, Tx. Motel 6 should be the standard other Motel 6 locations should be judged.The manager....Cyndy (sp?) runs her location, as well if not better than some 3-4 star properties. Her staff (the ones I've dealt with...Lucy, Retha and Jeremiah are outstanding, friendly, helpful, and just a pleasant group of individuals. Apparently, properly trained, or chosen for their skills dealing with the public(?) just nice people.I hope Motel 6 appreciates this manager and her "teams" efforts to make me and the other guest feel welcome, and that nothing is beyond their ability or willingness to help. Nicely done, Motel 6. Most people love to complain, but I could not resist the chance to share my opinion about my experience. If I'm ever back in this area, I will be back. I hope this review helps future travelers.DjMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r73824736-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>73824736</t>
+  </si>
+  <si>
+    <t>08/04/2010</t>
+  </si>
+  <si>
+    <t>Decent motel at decent price</t>
+  </si>
+  <si>
+    <t>We have stayed here several times when catching a flight out of DFW the next morning. It is a basic motel 6, nothing fancy just clean beds for a reasonable price. They have an outside pool that my kids like and I have never has any problems there. There are several fast food places in the area.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1108,1330 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_555.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Chazalives</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t>This Motel 6 (There are actually two within two miles of each other) is on the west-bound side of the Freeway. The reception staff person was very nice and helpful. The room was tidy, but didn't seem clean and had an oily feel on the floor - with shoes, socks, or bare feet, we left prints in the oil. The room had a very musty/smoky smell. The beds were fine, but unfortunately because of the smell of the room and the feel of the floor, we couldn't trust that the linens were clean. That said, all else seemed nice and again the reception people were very nice. It's an OK place to stay overnight for anyone who can handle just the basics.More</t>
   </si>
   <si>
+    <t>jntcm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r544888560-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>I spent a week at this location.  It was pretty much what I expected from the Motel 6.  The heater did not get that hot.  Even though I cranked it up to 80, it was maybe 65 in the room.  The shower did not get hot -- It just barely got lukewarm.  For three nights of my stay I got no sleep.  Three nights in a row, three different couples decided to have sex in the room next to mine.  All night I had to listen to the slapping and moaning and banging and name screaming.  They were different names each night, so I know they were different people.  I tried to complain to the manager, but they were having lunch at the time and too busy to be bothered by me.  When I told the front desk lady about the sex sounds the night before, she told me "that's what motels are for.".  Silly me.  I was there to sleep.  She said if it happened again they could move me to a different room, but it would probably just happen again.  I suggested they beef up the sound proofing between rooms.  She just smiled, shrugged, and said "This is Motel 6."  I packed up my belongings and went elsewhere so I could get some sleep finally.  What a miserable stay.  I would definitely NOT recommend this motel to families with young children.More</t>
   </si>
   <si>
+    <t>338aaronr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r529316388-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Hotelman63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r511998880-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>I stayed at this Motel 6 while working at the airport. It looks like it has just been remodeled in the rooms. But the management is really bad the manager is rude and doesn't care about her guest. Housekeepers are really no to good I came back to my room at 7pm and it was not done yet and they were still cleaning.There was no coffee in the lobby two mornings in a row. I don't know if I will stay here net month when I come back to work here. Maybe if they got a manager who is older and cares about the guest and the hotel it would be a good place to stay.I will give them one more chance but if not better there is a old La Quinta down the highway that is now a Motel 6 I will move there next time.More</t>
   </si>
   <si>
+    <t>757joshuat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r497385999-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Daniel R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r469733196-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>PatQuieta B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r434445369-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>Where do I begin? Upon arrival front desk clerk was cordial. When booking asked for downstairs, was told it wouldn't be a problem, only to arrive and there were no available rooms downstairs. Strike 1 upon entering our room, stains on both bedspreads and on sheets. Strike 2 noise, noise and more noise. Neighbors both IP and downstairs pretty much partied up until 3 in the AM. I was told that we would have microwave and fridge in room. Lies lies all lies!!!! I was so disappointed with the hotel , I've never had these problems with Motel 6 before ......I will not frequent this hotel again when visiting Texas.More</t>
   </si>
   <si>
+    <t>megitooo1992</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r430356688-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>I think the motel provided really good quality of service and accommodation for the money I paid. That is, of course, considering Dallas area prices. The only thing that I could note is that it is great that you guys have the labels for save water by hanging your towels. However, the housekeepers changed my towels every single day even if they were barely used. So maybe there should be a specialized green training for that so the housekeepers are aware of their options and be more eco-friendly. The other thing is: do not purchase the internet. This is the only thing I can say I am not satisfied with. It was EXTREMELY slow, and it is not free. Maybe it would not bother me as much if I did not pay extra for it. Another thing that occurred but I did not report was the loud neighbors upstairs. However, great condition of the room, really clean every day. Be prepared to have to activate your key card every day.More</t>
   </si>
   <si>
+    <t>bertthree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r415176731-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Chuck R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r394124038-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>bovenzba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r391187927-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -393,6 +426,9 @@
     <t>I needed a place to stay for one night prior to an early departure from DFW.  Based on the affordable rate and the location (ten minutes from airport), I chose this property.  The desk staff were friendly and helpful.  The room was very comfortable with little wasted space.  The wooden floor was much better than the dirty carpets of other hotels, although it could stand to be mopped.  The bed was comfortable and provided a good night's sleep.  The shower had good water pressure, while the sink pressure was far too low.  The light in the bathroom was on its last legs, but it worked for my stay.  Bath linens were a mixed bag, with one towel stained by too much use.  The motel had no elevator; not a problem for me, but could be a turn-off for those who need it.  The wi-fi was not free, but the cost was minimal considering the low rate for the room itself.  One problem was construction in the area.  The nearest bridge over the highway is being rebuilt, leading to the most convoluted detour I have seen.  Beware if you're on the wrong side of the highway from the motel!  Overall, this is certainly an excellent spot for a night and quick access to DFW, and I would consider a future stay.More</t>
   </si>
   <si>
+    <t>setarehvatan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r372847907-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -411,6 +447,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Brendalou72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r361442424-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -429,6 +468,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r355269868-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -454,6 +496,9 @@
   </si>
   <si>
     <t>The front desk personnel have terrible attitudes and speak disrespecfylly to you. Also the rooms are done quickly,unefficiently and aren't ckeaned thoroughly. The water smells funny from the faucet and shower, wouldn't recommend anyone to drink it. Room rates are low, but so is the service.More</t>
+  </si>
+  <si>
+    <t>Teriko</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r353463383-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -478,6 +523,9 @@
 When I went to book my trip for this past week, I again did a search for a budget motel (under $60/night), with at least 3 stars in reviews.  This was about the only one!  If it was under $60, the reviews were “Fair” at best.  I've looked as far north...I have a relative in Arlington who I visit at least once but usually twice a year.  I've been looking for a decent two star (inexpensive) hotel or motel.  I've tried two other places that either had niggling issues (e.g. a toilet that ran all night), or had a general bleh / ick factor.  I haven't stayed in a Motel 6 since the late 1990s, so decided to try them again.  I saw this one was rated better than the one across the 183 freeway.(I thought I'd already reviewed this motel after my first stay, but looks like I didn't, so...)  My first stay there was in Oct. 2015.  I asked for a non-smoking room, but it smelled like cigarette smoke.  Like it had wafted through the venting system from next door.  The night front desk clerk said I was five rooms away from the nearest smoking room.  He offered to move me, but I’d already unpacked and didn’t want to bother.  So he came to my room with a spray deodorizer.  It helped, as did running the A/C.  The room was clean, everything worked, staff was friendly.  When I went to book my trip for this past week, I again did a search for a budget motel (under $60/night), with at least 3 stars in reviews.  This was about the only one!  If it was under $60, the reviews were “Fair” at best.  I've looked as far north as Hurst, as far east as Grand Prairie - basically anything within 20 minutes of my relative's location in Arlington.  I couldn't find anything that looked better than this motel, so I stayed there again.  This time, the room only faintly smelled of smoke, and the A/C quickly dispelled the odor.  Again, everything was clean and in working order.I sometimes wonder / worry about all the people hanging around the motel, but then I remember that always seems to be the case at Motel 6's.  I was upstairs, and when people walked by my room, the floor shook with their steps.  I was worried people would be rowdy and walking around all hours of the night, but it really quieted down each night around 11p.  I always use earplugs when I travel, and once I fell asleep - I stayed asleep.  So at least for me, I felt safe enough, and noise was not a problem during normal quiet hours.  (Except the last night - there are houses behind the motel.  One house was having a party, I think to watch an HBO fight.  LOTS of people, very loud, cheering throughout the evening...and I was wondering if they'd ever stop when it didn't quiet down at 11p.  I don't know if the cops came or what, but it got quiet really suddenly right around midnight...So - that was not the motel clientele!)I miss coffee makers in the room, hotel toiletries, and decent towels.  But Motel 6 has stayed true to what they do, and for around $40 a night – if it’s clean, functional and safe – you really can’t complain.  I’ll always look for a new place to try if they have a good deal and have reviews of at least three stars, but when that fails – I’ll consider this my "I know what to expect' Go To place.More</t>
   </si>
   <si>
+    <t>Kevin K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r315489569-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -496,6 +544,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Mickimoto32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r294516770-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -514,6 +565,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>CLLBee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r285026246-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -535,6 +589,9 @@
     <t>I would just like to say that the pool was clean. The room and bedding was clean but the towles that is a different story!Lots of vending machine's and good coffee. I do not know the name of the man who worked front desk mostly at night but he was great! He was helpful, caring , and nice! The woman who worked front desk mostly during the day. I believe her name was Hema. She was the complete opposite.She put me in a room with a broken deadbolt and rhan a room with a leaking air conditioner. When I made remarks or coments about the rooms she was short and extremely RUDE , and unhelpful to say the least! Also, I asked her if I could get a wake up call at 7 am. I did not get a wake up call until after 10 am after I had already woke up and asked why I did not recieve it.The cleaning ladies were amazing and came by daily to see if you need anything. I did however have a few issues using the phone when it came to dialing out but that could have been the phone service all and all it was a nice place with the exception of Hema.More</t>
   </si>
   <si>
+    <t>bobinman1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r230790530-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -553,6 +610,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Shannon G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r211017366-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -574,6 +634,9 @@
     <t>Very plain. No frills... NONE. It does have a pool, but the area doesn't feel very private or safe. A lot of traffic runs through the back when the sun goes down. It feels like drug deals. The cherry on top was the fact that WIFI IS NOT FREE. Say what??? They want to charge you 3 bucks for WIFI. The rooms smell. The beds are think. I have stayed in other Motel 6's where the beds were awesome., the WIFI was  free and the rooms feelt a lot cleaner and more comfortable. I would say it's worth the 40 bucks but the nice Motel 6's I have stayed in were the same price. Find something better. It's a room if you absolutely have to. But, you can get better for the same price. All of thee high rated reviews must be the owners. It does not feel or smell clean. It is not quiet. It does not feel very safe at night. Here is a review.. .it's worse in person! The ONLY thing good about it is that it is down the street from North Main BBQ. Very good.. but only open Fri, Sat and SunMore</t>
   </si>
   <si>
+    <t>Deflep_85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r200962875-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -590,6 +653,9 @@
   </si>
   <si>
     <t>I spent approx 120+ days on the road in the past 12 mths. The Euless, Tx. Motel 6 should be the standard other Motel 6 locations should be judged.The manager....Cyndy (sp?) runs her location, as well if not better than some 3-4 star properties. Her staff (the ones I've dealt with...Lucy, Retha and Jeremiah are outstanding, friendly, helpful, and just a pleasant group of individuals. Apparently, properly trained, or chosen for their skills dealing with the public(?) just nice people.I hope Motel 6 appreciates this manager and her "teams" efforts to make me and the other guest feel welcome, and that nothing is beyond their ability or willingness to help. Nicely done, Motel 6. Most people love to complain, but I could not resist the chance to share my opinion about my experience. If I'm ever back in this area, I will be back. I hope this review helps future travelers.DjMore</t>
+  </si>
+  <si>
+    <t>Chicacherycola</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r73824736-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -1112,34 +1178,38 @@
       <c r="A2" t="n">
         <v>5952</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169257</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -1158,50 +1228,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5952</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1219,56 +1293,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5952</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169259</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1282,50 +1360,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5952</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1337,56 +1419,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5952</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169261</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1400,50 +1486,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5952</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>3923</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1461,50 +1551,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5952</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
         <v>96</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1518,50 +1612,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5952</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169263</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1581,50 +1679,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5952</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169264</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1638,50 +1740,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5952</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>17748</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1695,50 +1801,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5952</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169265</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1758,50 +1868,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5952</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169266</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1815,50 +1929,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5952</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169267</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -1878,50 +1996,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5952</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1933,56 +2055,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5952</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169268</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2000,50 +2126,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5952</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>14940</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2057,50 +2187,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5952</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169269</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2114,50 +2248,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5952</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169270</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2171,50 +2309,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5952</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>72256</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2232,50 +2374,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5952</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>57940</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2299,41 +2445,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5952</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169271</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -2362,50 +2512,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5952</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>21536</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2429,7 +2583,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_555.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_555.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Chazalives</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r571542605-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>55815</t>
+  </si>
+  <si>
+    <t>244352</t>
+  </si>
+  <si>
+    <t>571542605</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>It was alright</t>
+  </si>
+  <si>
+    <t>The room was clean but the beds were very worn out. Didn't have a fridge or microwave in the room, good thing we had a ice chest. Perfect location if your there to visit six flags, only a 15 mins away...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Dallas - Euless, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>The room was clean but the beds were very worn out. Didn't have a fridge or microwave in the room, good thing we had a ice chest. Perfect location if your there to visit six flags, only a 15 mins away...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r564458162-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>564458162</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>A place to escape the ice storm</t>
+  </si>
+  <si>
+    <t>I was in Cross Plains when the late February ice storm roared through the area. Having to drive the 160 miles to the DFW airport in the morning didn't seem wise, so I left early and made use of the mid-day thawed roads to get close to the airport for a morning departure. It was a short stay and I just needed the basics, so I opted to stay at the Euless Motel 6. The room was small, clean, and perfectly adequate for my needs. The bed was too soft for my old back, but I made due. Check in and check out was a breeze. The room was more than a fair value for the $50 I was charged. Wouldn't consider this motel for an extended say, but as they say any port in a storm.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was in Cross Plains when the late February ice storm roared through the area. Having to drive the 160 miles to the DFW airport in the morning didn't seem wise, so I left early and made use of the mid-day thawed roads to get close to the airport for a morning departure. It was a short stay and I just needed the basics, so I opted to stay at the Euless Motel 6. The room was small, clean, and perfectly adequate for my needs. The bed was too soft for my old back, but I made due. Check in and check out was a breeze. The room was more than a fair value for the $50 I was charged. Wouldn't consider this motel for an extended say, but as they say any port in a storm.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r555389595-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
-    <t>55815</t>
-  </si>
-  <si>
-    <t>244352</t>
-  </si>
-  <si>
     <t>555389595</t>
   </si>
   <si>
@@ -180,9 +231,6 @@
     <t>This Motel 6 (There are actually two within two miles of each other) is on the west-bound side of the Freeway. The reception staff person was very nice and helpful. The room was tidy, but didn't seem clean and had an oily feel on the floor - with shoes, socks, or bare feet, we left prints in the oil. The room had a very musty/smoky smell. The beds were fine, but unfortunately because of the smell of the room and the feel of the floor, we couldn't trust that the linens were clean. That said, all else seemed nice and again the reception people were very nice. It's an OK place to stay overnight for anyone who can handle just the basics.More</t>
   </si>
   <si>
-    <t>jntcm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r544888560-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -213,9 +261,6 @@
     <t>I spent a week at this location.  It was pretty much what I expected from the Motel 6.  The heater did not get that hot.  Even though I cranked it up to 80, it was maybe 65 in the room.  The shower did not get hot -- It just barely got lukewarm.  For three nights of my stay I got no sleep.  Three nights in a row, three different couples decided to have sex in the room next to mine.  All night I had to listen to the slapping and moaning and banging and name screaming.  They were different names each night, so I know they were different people.  I tried to complain to the manager, but they were having lunch at the time and too busy to be bothered by me.  When I told the front desk lady about the sex sounds the night before, she told me "that's what motels are for.".  Silly me.  I was there to sleep.  She said if it happened again they could move me to a different room, but it would probably just happen again.  I suggested they beef up the sound proofing between rooms.  She just smiled, shrugged, and said "This is Motel 6."  I packed up my belongings and went elsewhere so I could get some sleep finally.  What a miserable stay.  I would definitely NOT recommend this motel to families with young children.More</t>
   </si>
   <si>
-    <t>338aaronr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r529316388-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -234,7 +279,47 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>Hotelman63</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r526158270-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>526158270</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Filth, customer serviceless, lairs</t>
+  </si>
+  <si>
+    <t>Do not ever stay at a Hotel 6. Worst experience EVER. Full of liars and trash! Long, long rant ahead.
+First, we were going to stay at a campground but it was bloody hot and we were not going to be done filming until late and we both really wanted to be able to take a bath (since we only have a shower at the house). 
+So it began with this. When we got to the room it smelled like smoke. There was an ashtray in the room with a no smoking sticker on it. (odd). I get everything put in the room hoping to get to do some work before crashing but that didn't really happen because of what then ensued....First, the bathtub had pubs all over in it. I call down stairs and am told the cleaning staff has already left and there isn't another room to put me in. I go to the store and get comet to clean out the tub then realize there is no stopper for the tub. I go down to the front desk and ask for a stopper for the tub and am told they don't have one and to stick a towel in the drain. Seriously? So we looked around the room and tried several things to stop up the tub and finally got it mostly stopped up. Next morning we get up and hit walmart to replace a shirt my...Do not ever stay at a Hotel 6. Worst experience EVER. Full of liars and trash! Long, long rant ahead.First, we were going to stay at a campground but it was bloody hot and we were not going to be done filming until late and we both really wanted to be able to take a bath (since we only have a shower at the house). So it began with this. When we got to the room it smelled like smoke. There was an ashtray in the room with a no smoking sticker on it. (odd). I get everything put in the room hoping to get to do some work before crashing but that didn't really happen because of what then ensued....First, the bathtub had pubs all over in it. I call down stairs and am told the cleaning staff has already left and there isn't another room to put me in. I go to the store and get comet to clean out the tub then realize there is no stopper for the tub. I go down to the front desk and ask for a stopper for the tub and am told they don't have one and to stick a towel in the drain. Seriously? So we looked around the room and tried several things to stop up the tub and finally got it mostly stopped up. Next morning we get up and hit walmart to replace a shirt my son was supposed to wear for doing the re filming of one of his scenes, grab some lunch and watch a little TV. I noticed the maid going by and asked if she had access to a stopper for the tub but she spoke only Spanish. Since she had already been by we just left the room as it was (who needs a made bed anyway, I'm just going to pull all the sheets out again) and went to the shoot. We get done with the filming and interview part of the film and head back to the hotel. We get there to find that the maid apparently did come into the room. My bed was not made (it had junk all over it so I didn't blame her!) but Keagan's bed was made and....his bear was gone. Now some background...for those who don't know Keagan was mostly deaf until age 5. He'd had 6 surgeries. His first surgery was when he was 11 months old and they gave him a little panda bear which then went with him to every other surgery. It may seem infantile that he still sleeps with this bear but I guess everyone has a "thing". So now Keagan is loosing his mind. I go down to the office and ask the desk if they had seen the bear. The guy looks in the lost and found drawer and says no. I advised him of the depth of the situation and his response is "I don't think she would have taken your bear ma'am." I told him obviously I didn't think she stole the bear but I believe it probably was in the sheets and she didn't see it and asked if he could check the laundry room. He states he doesn't have a key to the laundry room and to come back at 9am. I tell him we need to leave by 6am and states there's nothing he can do. I ask him to call his manager to see about getting a key to the room. He states the manager is new and he doesn't have her phone number and doesn't know when she'll be in because she's not on the schedule yet. Really? I didn't get Keagan to sleep until almost 2 am he was so upset.Next day: 9am. Go down stairs. Charming lady at the front desk with TP stuffed in her nose. (I hope that's an allergy thing and not a gross new fad) I ask if she's aware of the issue from the previous night and she says no. I then explain it again. She calls for the cleaning staff...if I was not so angry the situation would have been comical. The maids don't speak any English and the counter clerk doesn't speak any Spanish and they're trying desperately to communicate to each other about a missing bear. Somewhere in translation apparently the one that cleaned the room seemed to believe I was accusing her of outright theft and started saying "No, no, I no have. I no take". I asked if they could go in the laundry room and look for the bear to which I'm advised they don't have time for. I ask if I could go look and am told that's a security issue. I ask again about the manager and am told again that they don't have her number and they don't know if she's coming in. The girl at the counter puts a note on the managers door with my number asking her to call me.It took all but an act of God to get Keagan to leave without that bear. He cried for almost an hour and a half....I call customer serviceless again advise them of everything that transpired and am told I'll need to contact the manager or call when customer service is open and give 5 days for resolution. (it was late evening when we got home and I called again). So here we are, Wednesday and no call back. I call the hotel and a guy answers. I ask for the manager and he states the manager is busy but he'll take my number. I tell him that I left my number Sunday and have not received a call back regarding out stay. She almost immediately gets on the phone and asks what the bear looks like. I tell her it's a panda bear and she asks what color...I'm like "Umm black and white?" To which she says "You don't know?" I again state "Black and white, it's a panda about the size of your hand." She puts me on hold for about 3 minutes then states she doesn't see it but will look in the laundry room and call me back. 15 minutes later she calls back and says "No bear, sorry". Phone disconnected.So I'm frustrated about the bear and furious about the whole experience. I call customer serviceless back and advise them of everything and ask for compensation. I'm told that only the hotel manager can authorize that and we'll call them. I wait on hold while he calls the manager. He gets back on and says "The manager stated she will not compensate because you had unauthorized visitors in your room". Say what? I said "No I didn't, we were hardly in the room ourselves. Who and how many did we supposedly have in there and when?" He says "I don't know that's just what she said and that's all the info I have. She will not compensate." I ask to speak to a supervisor and am told that if the manager will not compensate there's nothing customer service can do. I ask if she owns Motel 6 and they say "She's the manager." I said "Okay but she doesn't own it. It's your name she's smearing through her actions, it's your name on her sign, it's your company as a whole that has to justify her actions". They state again it's up to the manager.So I call the Hotel 6 back to ask the manager who was supposedly in my room, when, how many. I sure would like to see video of that. Maybe they took the bear, right?So I get the guy on the phone again and tell him I need to speak to the manager. He asks who I am and when I say my name he immediately hangs up. I call back 6 times, all 6 times they pick up the phone and hang it back up. Thank you for teaching me to NEVER use Motel 6 again. Thank you for confirming we should have just suffered the heat and stayed at the campground. Thank you for breaking my little boys heart. I WILL make sure to spread the word.MoreShow less</t>
+  </si>
+  <si>
+    <t>Do not ever stay at a Hotel 6. Worst experience EVER. Full of liars and trash! Long, long rant ahead.
+First, we were going to stay at a campground but it was bloody hot and we were not going to be done filming until late and we both really wanted to be able to take a bath (since we only have a shower at the house). 
+So it began with this. When we got to the room it smelled like smoke. There was an ashtray in the room with a no smoking sticker on it. (odd). I get everything put in the room hoping to get to do some work before crashing but that didn't really happen because of what then ensued....First, the bathtub had pubs all over in it. I call down stairs and am told the cleaning staff has already left and there isn't another room to put me in. I go to the store and get comet to clean out the tub then realize there is no stopper for the tub. I go down to the front desk and ask for a stopper for the tub and am told they don't have one and to stick a towel in the drain. Seriously? So we looked around the room and tried several things to stop up the tub and finally got it mostly stopped up. Next morning we get up and hit walmart to replace a shirt my...Do not ever stay at a Hotel 6. Worst experience EVER. Full of liars and trash! Long, long rant ahead.First, we were going to stay at a campground but it was bloody hot and we were not going to be done filming until late and we both really wanted to be able to take a bath (since we only have a shower at the house). So it began with this. When we got to the room it smelled like smoke. There was an ashtray in the room with a no smoking sticker on it. (odd). I get everything put in the room hoping to get to do some work before crashing but that didn't really happen because of what then ensued....First, the bathtub had pubs all over in it. I call down stairs and am told the cleaning staff has already left and there isn't another room to put me in. I go to the store and get comet to clean out the tub then realize there is no stopper for the tub. I go down to the front desk and ask for a stopper for the tub and am told they don't have one and to stick a towel in the drain. Seriously? So we looked around the room and tried several things to stop up the tub and finally got it mostly stopped up. Next morning we get up and hit walmart to replace a shirt my son was supposed to wear for doing the re filming of one of his scenes, grab some lunch and watch a little TV. I noticed the maid going by and asked if she had access to a stopper for the tub but she spoke only Spanish. Since she had already been by we just left the room as it was (who needs a made bed anyway, I'm just going to pull all the sheets out again) and went to the shoot. We get done with the filming and interview part of the film and head back to the hotel. We get there to find that the maid apparently did come into the room. My bed was not made (it had junk all over it so I didn't blame her!) but Keagan's bed was made and....his bear was gone. Now some background...for those who don't know Keagan was mostly deaf until age 5. He'd had 6 surgeries. His first surgery was when he was 11 months old and they gave him a little panda bear which then went with him to every other surgery. It may seem infantile that he still sleeps with this bear but I guess everyone has a "thing". So now Keagan is loosing his mind. I go down to the office and ask the desk if they had seen the bear. The guy looks in the lost and found drawer and says no. I advised him of the depth of the situation and his response is "I don't think she would have taken your bear ma'am." I told him obviously I didn't think she stole the bear but I believe it probably was in the sheets and she didn't see it and asked if he could check the laundry room. He states he doesn't have a key to the laundry room and to come back at 9am. I tell him we need to leave by 6am and states there's nothing he can do. I ask him to call his manager to see about getting a key to the room. He states the manager is new and he doesn't have her phone number and doesn't know when she'll be in because she's not on the schedule yet. Really? I didn't get Keagan to sleep until almost 2 am he was so upset.Next day: 9am. Go down stairs. Charming lady at the front desk with TP stuffed in her nose. (I hope that's an allergy thing and not a gross new fad) I ask if she's aware of the issue from the previous night and she says no. I then explain it again. She calls for the cleaning staff...if I was not so angry the situation would have been comical. The maids don't speak any English and the counter clerk doesn't speak any Spanish and they're trying desperately to communicate to each other about a missing bear. Somewhere in translation apparently the one that cleaned the room seemed to believe I was accusing her of outright theft and started saying "No, no, I no have. I no take". I asked if they could go in the laundry room and look for the bear to which I'm advised they don't have time for. I ask if I could go look and am told that's a security issue. I ask again about the manager and am told again that they don't have her number and they don't know if she's coming in. The girl at the counter puts a note on the managers door with my number asking her to call me.It took all but an act of God to get Keagan to leave without that bear. He cried for almost an hour and a half....I call customer serviceless again advise them of everything that transpired and am told I'll need to contact the manager or call when customer service is open and give 5 days for resolution. (it was late evening when we got home and I called again). So here we are, Wednesday and no call back. I call the hotel and a guy answers. I ask for the manager and he states the manager is busy but he'll take my number. I tell him that I left my number Sunday and have not received a call back regarding out stay. She almost immediately gets on the phone and asks what the bear looks like. I tell her it's a panda bear and she asks what color...I'm like "Umm black and white?" To which she says "You don't know?" I again state "Black and white, it's a panda about the size of your hand." She puts me on hold for about 3 minutes then states she doesn't see it but will look in the laundry room and call me back. 15 minutes later she calls back and says "No bear, sorry". Phone disconnected.So I'm frustrated about the bear and furious about the whole experience. I call customer serviceless back and advise them of everything and ask for compensation. I'm told that only the hotel manager can authorize that and we'll call them. I wait on hold while he calls the manager. He gets back on and says "The manager stated she will not compensate because you had unauthorized visitors in your room". Say what? I said "No I didn't, we were hardly in the room ourselves. Who and how many did we supposedly have in there and when?" He says "I don't know that's just what she said and that's all the info I have. She will not compensate." I ask to speak to a supervisor and am told that if the manager will not compensate there's nothing customer service can do. I ask if she owns Motel 6 and they say "She's the manager." I said "Okay but she doesn't own it. It's your name she's smearing through her actions, it's your name on her sign, it's your company as a whole that has to justify her actions". They state again it's up to the manager.So I call the Hotel 6 back to ask the manager who was supposedly in my room, when, how many. I sure would like to see video of that. Maybe they took the bear, right?So I get the guy on the phone again and tell him I need to speak to the manager. He asks who I am and when I say my name he immediately hangs up. I call back 6 times, all 6 times they pick up the phone and hang it back up. Thank you for teaching me to NEVER use Motel 6 again. Thank you for confirming we should have just suffered the heat and stayed at the campground. Thank you for breaking my little boys heart. I WILL make sure to spread the word.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r521085924-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>521085924</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>This is the worst motel  I have ever stayed at</t>
+  </si>
+  <si>
+    <t>I booked a room at this  Hotel on 9.2 to get out Houston following Hurricane Harvey.  When arriving it took the hotel clerk 20 minutes to check us in.  When we were finally given our room, the cleaning people were just leaving.  Although it was allegedly a "non smoking" room, it reeked of cigarettes.  The hotel room air conditioner blew slightly cold air and appeared to be on its last legs (one could get cooler by fanning themselves with a fan).  There was some sort of mystery substance splattered on the ceiling.  Truth be told, I'm probably better off not knowing what it was.   At one point a security guard knocked on the door to inform us that drinks were not allowed on the window ledge inside the hotel room.  I'm glad the security guard was so vigilant.  At approximately 2:30 am I woken up and told that my car was "improperly parked" and I needed to move it.  I had backed in directly in front of the apartment office but this wasn't an issue until 2:30 am apparently. The reason I was given for having to do this?  The night security guard needed to see our parking pass.  The three additional steps the security guard needed to see the tag was apparently too much effort for him (said officer was in the hotel office).  When I asked the clerk why I had to move the car, he said it...I booked a room at this  Hotel on 9.2 to get out Houston following Hurricane Harvey.  When arriving it took the hotel clerk 20 minutes to check us in.  When we were finally given our room, the cleaning people were just leaving.  Although it was allegedly a "non smoking" room, it reeked of cigarettes.  The hotel room air conditioner blew slightly cold air and appeared to be on its last legs (one could get cooler by fanning themselves with a fan).  There was some sort of mystery substance splattered on the ceiling.  Truth be told, I'm probably better off not knowing what it was.   At one point a security guard knocked on the door to inform us that drinks were not allowed on the window ledge inside the hotel room.  I'm glad the security guard was so vigilant.  At approximately 2:30 am I woken up and told that my car was "improperly parked" and I needed to move it.  I had backed in directly in front of the apartment office but this wasn't an issue until 2:30 am apparently. The reason I was given for having to do this?  The night security guard needed to see our parking pass.  The three additional steps the security guard needed to see the tag was apparently too much effort for him (said officer was in the hotel office).  When I asked the clerk why I had to move the car, he said it was "state law".  I went downstairs to move the car to meet their specifications.  After moving the car, I returned to the office and asked the clerk which "state law" it violated.  He didn't know but now changed the story and said it violated "hotel policy" .  When I asked why I wasn't informed that cars had to be parked a certain way when I was given the parking pass, the hotel manager told me I was kicked out of the apartment.   Long of the short of this, I was kicked out of a hotel after complying with instructions given to me by the front desk.  Please do not stay at this hotel unless you enjoy giving your money away to persons who will arbitrarily make up "rules" as they go along.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I booked a room at this  Hotel on 9.2 to get out Houston following Hurricane Harvey.  When arriving it took the hotel clerk 20 minutes to check us in.  When we were finally given our room, the cleaning people were just leaving.  Although it was allegedly a "non smoking" room, it reeked of cigarettes.  The hotel room air conditioner blew slightly cold air and appeared to be on its last legs (one could get cooler by fanning themselves with a fan).  There was some sort of mystery substance splattered on the ceiling.  Truth be told, I'm probably better off not knowing what it was.   At one point a security guard knocked on the door to inform us that drinks were not allowed on the window ledge inside the hotel room.  I'm glad the security guard was so vigilant.  At approximately 2:30 am I woken up and told that my car was "improperly parked" and I needed to move it.  I had backed in directly in front of the apartment office but this wasn't an issue until 2:30 am apparently. The reason I was given for having to do this?  The night security guard needed to see our parking pass.  The three additional steps the security guard needed to see the tag was apparently too much effort for him (said officer was in the hotel office).  When I asked the clerk why I had to move the car, he said it...I booked a room at this  Hotel on 9.2 to get out Houston following Hurricane Harvey.  When arriving it took the hotel clerk 20 minutes to check us in.  When we were finally given our room, the cleaning people were just leaving.  Although it was allegedly a "non smoking" room, it reeked of cigarettes.  The hotel room air conditioner blew slightly cold air and appeared to be on its last legs (one could get cooler by fanning themselves with a fan).  There was some sort of mystery substance splattered on the ceiling.  Truth be told, I'm probably better off not knowing what it was.   At one point a security guard knocked on the door to inform us that drinks were not allowed on the window ledge inside the hotel room.  I'm glad the security guard was so vigilant.  At approximately 2:30 am I woken up and told that my car was "improperly parked" and I needed to move it.  I had backed in directly in front of the apartment office but this wasn't an issue until 2:30 am apparently. The reason I was given for having to do this?  The night security guard needed to see our parking pass.  The three additional steps the security guard needed to see the tag was apparently too much effort for him (said officer was in the hotel office).  When I asked the clerk why I had to move the car, he said it was "state law".  I went downstairs to move the car to meet their specifications.  After moving the car, I returned to the office and asked the clerk which "state law" it violated.  He didn't know but now changed the story and said it violated "hotel policy" .  When I asked why I wasn't informed that cars had to be parked a certain way when I was given the parking pass, the hotel manager told me I was kicked out of the apartment.   Long of the short of this, I was kicked out of a hotel after complying with instructions given to me by the front desk.  Please do not stay at this hotel unless you enjoy giving your money away to persons who will arbitrarily make up "rules" as they go along.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r511998880-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -264,9 +349,6 @@
     <t>I stayed at this Motel 6 while working at the airport. It looks like it has just been remodeled in the rooms. But the management is really bad the manager is rude and doesn't care about her guest. Housekeepers are really no to good I came back to my room at 7pm and it was not done yet and they were still cleaning.There was no coffee in the lobby two mornings in a row. I don't know if I will stay here net month when I come back to work here. Maybe if they got a manager who is older and cares about the guest and the hotel it would be a good place to stay.I will give them one more chance but if not better there is a old La Quinta down the highway that is now a Motel 6 I will move there next time.More</t>
   </si>
   <si>
-    <t>757joshuat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r497385999-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -285,9 +367,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Daniel R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r469733196-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -309,7 +388,40 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>PatQuieta B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r445783258-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>445783258</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Ok in a pinch</t>
+  </si>
+  <si>
+    <t>Mediocre.  Service was great.... room.... cheap remodel. Hardwood is nice.  Seems cleaner.  Very noisy.  Okay inn a pinch,  because it is cheap. Pool looked nice. Very close to airport and food options. If you are flying this is good.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r439939886-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>439939886</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Bedbugs, fecal matter and blood</t>
+  </si>
+  <si>
+    <t>I checked in late and the first room was filthy and had blood and fecal mater on the walls, I went to the front desk and asked for a different room.  I walked into the next room and it was a bit cleaner, but when I pulled the covers back there were many many bedbugs everywhere with blood spots on the sheets.ABSOLUTELY DISGUSTING AND UNACCEPTABLE.  This hotel is disgusting and needs to be closed down.  Don't ever, ever stay here for any reason.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r434445369-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -333,9 +445,6 @@
     <t>Where do I begin? Upon arrival front desk clerk was cordial. When booking asked for downstairs, was told it wouldn't be a problem, only to arrive and there were no available rooms downstairs. Strike 1 upon entering our room, stains on both bedspreads and on sheets. Strike 2 noise, noise and more noise. Neighbors both IP and downstairs pretty much partied up until 3 in the AM. I was told that we would have microwave and fridge in room. Lies lies all lies!!!! I was so disappointed with the hotel , I've never had these problems with Motel 6 before ......I will not frequent this hotel again when visiting Texas.More</t>
   </si>
   <si>
-    <t>megitooo1992</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r430356688-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -351,15 +460,9 @@
     <t>I think the motel provided really good quality of service and accommodation for the money I paid. That is, of course, considering Dallas area prices. The only thing that I could note is that it is great that you guys have the labels for save water by hanging your towels. However, the housekeepers changed my towels every single day even if they were barely used. So maybe there should be a specialized green training for that so the housekeepers are aware of their options and be more eco-friendly. The other thing is: do not purchase the internet. This is the only thing I can say I am not satisfied with. It was EXTREMELY slow, and it is not free. Maybe it would not bother me as much if I did not pay extra for it. Another thing that occurred but I did not report was the loud neighbors upstairs. However, great condition of the room, really clean every day. Be prepared to have to activate your key card every day.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I think the motel provided really good quality of service and accommodation for the money I paid. That is, of course, considering Dallas area prices. The only thing that I could note is that it is great that you guys have the labels for save water by hanging your towels. However, the housekeepers changed my towels every single day even if they were barely used. So maybe there should be a specialized green training for that so the housekeepers are aware of their options and be more eco-friendly. The other thing is: do not purchase the internet. This is the only thing I can say I am not satisfied with. It was EXTREMELY slow, and it is not free. Maybe it would not bother me as much if I did not pay extra for it. Another thing that occurred but I did not report was the loud neighbors upstairs. However, great condition of the room, really clean every day. Be prepared to have to activate your key card every day.More</t>
   </si>
   <si>
-    <t>bertthree</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r415176731-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -378,10 +481,37 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Chuck R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r414381168-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>414381168</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>HORRIBLE</t>
+  </si>
+  <si>
+    <t>The WORST experience ever! We booked a room here for a football game. The site read, a Queen size bed but it was a Double bed. Yes one Double bed! I couldn't believe they would actually rent a room with one  Double bed. Thank God it was for one night only. I plan on going back next year but will never book at another Motel 6 again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r398553528-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>398553528</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>What a joke.</t>
+  </si>
+  <si>
+    <t>This place has to be the worst I have ever stayed in.  The rooms have bare floors which get cold as ice when the aircon is on.  There is no restaurants altough there are many nearby.  They have no free wifi but they do have plans that you can purchase.  Whoever heard of no free wifi in this day and age.  The staff just laugh off your complaints as if they just don't care.   In addition, the walls of the rooms must be made out of cardboard because you can hear everything that goes on with your neighbor.  I will never stay there again.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r394124038-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -399,12 +529,6 @@
     <t xml:space="preserve">The room was clean and recently remodeled.  It has a nice pool too.The wifi that you pay 4.99 for is for only one device. Not very happy about that.The rooms do not have an iron or a refrigerator.   The air conditioning barely keeps up with the Texas heat. I was  there for 4 nights.  Every day when I got back from my meetings I had go to the office to have the room key reset.  </t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
-    <t>bovenzba</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r391187927-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -420,15 +544,9 @@
     <t>I needed a place to stay for one night prior to an early departure from DFW.  Based on the affordable rate and the location (ten minutes from airport), I chose this property.  The desk staff were friendly and helpful.  The room was very comfortable with little wasted space.  The wooden floor was much better than the dirty carpets of other hotels, although it could stand to be mopped.  The bed was comfortable and provided a good night's sleep.  The shower had good water pressure, while the sink pressure was far too low.  The light in the bathroom was on its last legs, but it worked for my stay.  Bath linens were a mixed bag, with one towel stained by too much use.  The motel had no elevator; not a problem for me, but could be a turn-off for those who need it.  The wi-fi was not free, but the cost was minimal considering the low rate for the room itself.  One problem was construction in the area.  The nearest bridge over the highway is being rebuilt, leading to the most convoluted detour I have seen.  Beware if you're on the wrong side of the highway from the motel!  Overall, this is certainly an excellent spot for a night and quick access to DFW, and I would consider a future stay.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I needed a place to stay for one night prior to an early departure from DFW.  Based on the affordable rate and the location (ten minutes from airport), I chose this property.  The desk staff were friendly and helpful.  The room was very comfortable with little wasted space.  The wooden floor was much better than the dirty carpets of other hotels, although it could stand to be mopped.  The bed was comfortable and provided a good night's sleep.  The shower had good water pressure, while the sink pressure was far too low.  The light in the bathroom was on its last legs, but it worked for my stay.  Bath linens were a mixed bag, with one towel stained by too much use.  The motel had no elevator; not a problem for me, but could be a turn-off for those who need it.  The wi-fi was not free, but the cost was minimal considering the low rate for the room itself.  One problem was construction in the area.  The nearest bridge over the highway is being rebuilt, leading to the most convoluted detour I have seen.  Beware if you're on the wrong side of the highway from the motel!  Overall, this is certainly an excellent spot for a night and quick access to DFW, and I would consider a future stay.More</t>
   </si>
   <si>
-    <t>setarehvatan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r372847907-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -447,7 +565,53 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Brendalou72</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r367034689-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>367034689</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Better than your average Motel 6</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy. One thing that Expedia doesn't mention is that WiFi is not free, $2.99/$4.99 per day. The guy at the front desk said there's no difference between the two.
+I stayed in 252 initially, a queen room. It was very well cleaned, modern, comfortable, spacious. Even the water pressure was fine for most hotels. There was a rather bad looking ceiling repair, but that seemed only cosmetic. Unfortunately during a bad storm, that repair leaked. It was in the middle of the night, so I let the front desk know and put a trash can under it. The next morning, there were repairs happening to the security system. As a worker walked on the roof above the room, the ceiling began to leak again. I was gathering my things to move to a different room, and the light fixture fell through. I was moved to a first floor double queen. Again, spacious, modern, comfy and clean. The only drawback is that the TV gets a little choppy at times, and the usual amenities like an iron and fridge would help.
+The staff have been generally wonderful to deal with. I would've liked the TV to include more of the sports and local channels. There is a laundry facility but it was out of order. The location is great, on 183, next to a Starbucks, Sonic and Jack in the Box. Whataburger, Taco Bueno and some...Check in was quick and easy. One thing that Expedia doesn't mention is that WiFi is not free, $2.99/$4.99 per day. The guy at the front desk said there's no difference between the two.I stayed in 252 initially, a queen room. It was very well cleaned, modern, comfortable, spacious. Even the water pressure was fine for most hotels. There was a rather bad looking ceiling repair, but that seemed only cosmetic. Unfortunately during a bad storm, that repair leaked. It was in the middle of the night, so I let the front desk know and put a trash can under it. The next morning, there were repairs happening to the security system. As a worker walked on the roof above the room, the ceiling began to leak again. I was gathering my things to move to a different room, and the light fixture fell through. I was moved to a first floor double queen. Again, spacious, modern, comfy and clean. The only drawback is that the TV gets a little choppy at times, and the usual amenities like an iron and fridge would help.The staff have been generally wonderful to deal with. I would've liked the TV to include more of the sports and local channels. There is a laundry facility but it was out of order. The location is great, on 183, next to a Starbucks, Sonic and Jack in the Box. Whataburger, Taco Bueno and some other places are across the highway. DFW is just a few seconds away.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy. One thing that Expedia doesn't mention is that WiFi is not free, $2.99/$4.99 per day. The guy at the front desk said there's no difference between the two.
+I stayed in 252 initially, a queen room. It was very well cleaned, modern, comfortable, spacious. Even the water pressure was fine for most hotels. There was a rather bad looking ceiling repair, but that seemed only cosmetic. Unfortunately during a bad storm, that repair leaked. It was in the middle of the night, so I let the front desk know and put a trash can under it. The next morning, there were repairs happening to the security system. As a worker walked on the roof above the room, the ceiling began to leak again. I was gathering my things to move to a different room, and the light fixture fell through. I was moved to a first floor double queen. Again, spacious, modern, comfy and clean. The only drawback is that the TV gets a little choppy at times, and the usual amenities like an iron and fridge would help.
+The staff have been generally wonderful to deal with. I would've liked the TV to include more of the sports and local channels. There is a laundry facility but it was out of order. The location is great, on 183, next to a Starbucks, Sonic and Jack in the Box. Whataburger, Taco Bueno and some...Check in was quick and easy. One thing that Expedia doesn't mention is that WiFi is not free, $2.99/$4.99 per day. The guy at the front desk said there's no difference between the two.I stayed in 252 initially, a queen room. It was very well cleaned, modern, comfortable, spacious. Even the water pressure was fine for most hotels. There was a rather bad looking ceiling repair, but that seemed only cosmetic. Unfortunately during a bad storm, that repair leaked. It was in the middle of the night, so I let the front desk know and put a trash can under it. The next morning, there were repairs happening to the security system. As a worker walked on the roof above the room, the ceiling began to leak again. I was gathering my things to move to a different room, and the light fixture fell through. I was moved to a first floor double queen. Again, spacious, modern, comfy and clean. The only drawback is that the TV gets a little choppy at times, and the usual amenities like an iron and fridge would help.The staff have been generally wonderful to deal with. I would've liked the TV to include more of the sports and local channels. There is a laundry facility but it was out of order. The location is great, on 183, next to a Starbucks, Sonic and Jack in the Box. Whataburger, Taco Bueno and some other places are across the highway. DFW is just a few seconds away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r361553303-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>361553303</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Kinda sketchy....</t>
+  </si>
+  <si>
+    <t>Kinda sketchy....there were people living there with dogs and other people who didn't respect other guest. Tvs were old and the remote did not have and batteries..on a positive note not far from at&amp;t stadium...MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Dallas - Euless, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Kinda sketchy....there were people living there with dogs and other people who didn't respect other guest. Tvs were old and the remote did not have and batteries..on a positive note not far from at&amp;t stadium...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r361442424-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -456,21 +620,12 @@
     <t>361442424</t>
   </si>
   <si>
-    <t>04/04/2016</t>
-  </si>
-  <si>
     <t>Friendly staff and clean rooms</t>
   </si>
   <si>
     <t>Having spent the night sleeping at the airport we decided to see if we could check into our room early. We arrived at the motel at around 7am. At first the lady on the desk told us she couldn't get us into until 3pm. So we left and hung out at star bucks for an hr or so. We must have looked like crap because when we went back to the motel Euginie the lady at reception told us "y'all just wait their I am having a room made up for you now"Music to our ears. Our room was clean and the staff more than helpful.</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>James S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r355269868-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -496,9 +651,6 @@
   </si>
   <si>
     <t>The front desk personnel have terrible attitudes and speak disrespecfylly to you. Also the rooms are done quickly,unefficiently and aren't ckeaned thoroughly. The water smells funny from the faucet and shower, wouldn't recommend anyone to drink it. Room rates are low, but so is the service.More</t>
-  </si>
-  <si>
-    <t>Teriko</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r353463383-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -523,7 +675,37 @@
 When I went to book my trip for this past week, I again did a search for a budget motel (under $60/night), with at least 3 stars in reviews.  This was about the only one!  If it was under $60, the reviews were “Fair” at best.  I've looked as far north...I have a relative in Arlington who I visit at least once but usually twice a year.  I've been looking for a decent two star (inexpensive) hotel or motel.  I've tried two other places that either had niggling issues (e.g. a toilet that ran all night), or had a general bleh / ick factor.  I haven't stayed in a Motel 6 since the late 1990s, so decided to try them again.  I saw this one was rated better than the one across the 183 freeway.(I thought I'd already reviewed this motel after my first stay, but looks like I didn't, so...)  My first stay there was in Oct. 2015.  I asked for a non-smoking room, but it smelled like cigarette smoke.  Like it had wafted through the venting system from next door.  The night front desk clerk said I was five rooms away from the nearest smoking room.  He offered to move me, but I’d already unpacked and didn’t want to bother.  So he came to my room with a spray deodorizer.  It helped, as did running the A/C.  The room was clean, everything worked, staff was friendly.  When I went to book my trip for this past week, I again did a search for a budget motel (under $60/night), with at least 3 stars in reviews.  This was about the only one!  If it was under $60, the reviews were “Fair” at best.  I've looked as far north as Hurst, as far east as Grand Prairie - basically anything within 20 minutes of my relative's location in Arlington.  I couldn't find anything that looked better than this motel, so I stayed there again.  This time, the room only faintly smelled of smoke, and the A/C quickly dispelled the odor.  Again, everything was clean and in working order.I sometimes wonder / worry about all the people hanging around the motel, but then I remember that always seems to be the case at Motel 6's.  I was upstairs, and when people walked by my room, the floor shook with their steps.  I was worried people would be rowdy and walking around all hours of the night, but it really quieted down each night around 11p.  I always use earplugs when I travel, and once I fell asleep - I stayed asleep.  So at least for me, I felt safe enough, and noise was not a problem during normal quiet hours.  (Except the last night - there are houses behind the motel.  One house was having a party, I think to watch an HBO fight.  LOTS of people, very loud, cheering throughout the evening...and I was wondering if they'd ever stop when it didn't quiet down at 11p.  I don't know if the cops came or what, but it got quiet really suddenly right around midnight...So - that was not the motel clientele!)I miss coffee makers in the room, hotel toiletries, and decent towels.  But Motel 6 has stayed true to what they do, and for around $40 a night – if it’s clean, functional and safe – you really can’t complain.  I’ll always look for a new place to try if they have a good deal and have reviews of at least three stars, but when that fails – I’ll consider this my "I know what to expect' Go To place.More</t>
   </si>
   <si>
-    <t>Kevin K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r352652275-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>352652275</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Good to go</t>
+  </si>
+  <si>
+    <t>It was clean, nice, everything I needed in the room for traveling on business. Nothing fancy but very comfortable and everything I needed. If you're traveling on business and you want to keep your expenses down, I absolutely recommend this motel 6.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r338535602-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>338535602</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>It was great</t>
+  </si>
+  <si>
+    <t>It was ok...like most motels 6 . Maybe the only thing was that the tv was old and didn't  have a remote . I just stay to shower and sleep so it's  more than ok. It was clean it smelled good. Microwave  and mini fridge worked .I liked it.:)</t>
+  </si>
+  <si>
+    <t>January 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r315489569-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -544,9 +726,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Mickimoto32</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r294516770-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -565,9 +744,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>CLLBee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r285026246-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -589,7 +765,49 @@
     <t>I would just like to say that the pool was clean. The room and bedding was clean but the towles that is a different story!Lots of vending machine's and good coffee. I do not know the name of the man who worked front desk mostly at night but he was great! He was helpful, caring , and nice! The woman who worked front desk mostly during the day. I believe her name was Hema. She was the complete opposite.She put me in a room with a broken deadbolt and rhan a room with a leaking air conditioner. When I made remarks or coments about the rooms she was short and extremely RUDE , and unhelpful to say the least! Also, I asked her if I could get a wake up call at 7 am. I did not get a wake up call until after 10 am after I had already woke up and asked why I did not recieve it.The cleaning ladies were amazing and came by daily to see if you need anything. I did however have a few issues using the phone when it came to dialing out but that could have been the phone service all and all it was a nice place with the exception of Hema.More</t>
   </si>
   <si>
-    <t>bobinman1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r279800296-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>279800296</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Cost efficient and clean</t>
+  </si>
+  <si>
+    <t>This place was literally a port in a storm! I was at the Dallas-Fort Worth International airport waiting for my flight home when all the flights were cancelled due to severe rain and weather. After a relatively short ride from the airport I came upon this Motel 6 and checked in for the overnight stay/delay. Comparatively speaking, the room was spartan but for $46 bucks it was a steal. The room was exceptionally clean, comfortable, and a real value.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r268080930-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>268080930</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>What a joke of a place</t>
+  </si>
+  <si>
+    <t>I use to come here all the time it was a good place a few years ago but since new management took over they are a mess the rates went up too 300 dollars a week with no damn microwave no refrigerator charging for new look on the place then when i checkout and went to check back in the manager put me on do not give room list cause i left trash in the room thats there job but say i trash room thats a lie its not worth 60 dollars a day management the front desk all 3 shifts are a mess they are rude dont know how to talk to people drugs are everywhere DO NOT GO TO THIS ONE they overcharged you this motel 6 is a joke dealing with stupid peopleMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Euless, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>I use to come here all the time it was a good place a few years ago but since new management took over they are a mess the rates went up too 300 dollars a week with no damn microwave no refrigerator charging for new look on the place then when i checkout and went to check back in the manager put me on do not give room list cause i left trash in the room thats there job but say i trash room thats a lie its not worth 60 dollars a day management the front desk all 3 shifts are a mess they are rude dont know how to talk to people drugs are everywhere DO NOT GO TO THIS ONE they overcharged you this motel 6 is a joke dealing with stupid peopleMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r230790530-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -610,9 +828,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Shannon G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r211017366-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -634,9 +849,6 @@
     <t>Very plain. No frills... NONE. It does have a pool, but the area doesn't feel very private or safe. A lot of traffic runs through the back when the sun goes down. It feels like drug deals. The cherry on top was the fact that WIFI IS NOT FREE. Say what??? They want to charge you 3 bucks for WIFI. The rooms smell. The beds are think. I have stayed in other Motel 6's where the beds were awesome., the WIFI was  free and the rooms feelt a lot cleaner and more comfortable. I would say it's worth the 40 bucks but the nice Motel 6's I have stayed in were the same price. Find something better. It's a room if you absolutely have to. But, you can get better for the same price. All of thee high rated reviews must be the owners. It does not feel or smell clean. It is not quiet. It does not feel very safe at night. Here is a review.. .it's worse in person! The ONLY thing good about it is that it is down the street from North Main BBQ. Very good.. but only open Fri, Sat and SunMore</t>
   </si>
   <si>
-    <t>Deflep_85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r200962875-Motel_6_Dallas_Euless-Euless_Texas.html</t>
   </si>
   <si>
@@ -655,7 +867,37 @@
     <t>I spent approx 120+ days on the road in the past 12 mths. The Euless, Tx. Motel 6 should be the standard other Motel 6 locations should be judged.The manager....Cyndy (sp?) runs her location, as well if not better than some 3-4 star properties. Her staff (the ones I've dealt with...Lucy, Retha and Jeremiah are outstanding, friendly, helpful, and just a pleasant group of individuals. Apparently, properly trained, or chosen for their skills dealing with the public(?) just nice people.I hope Motel 6 appreciates this manager and her "teams" efforts to make me and the other guest feel welcome, and that nothing is beyond their ability or willingness to help. Nicely done, Motel 6. Most people love to complain, but I could not resist the chance to share my opinion about my experience. If I'm ever back in this area, I will be back. I hope this review helps future travelers.DjMore</t>
   </si>
   <si>
-    <t>Chicacherycola</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r175429714-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>175429714</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Not the worst place I've stayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made the reservations online. When we arrived I had no problem checking in. The room was decent and seemed to have new paint. We were on the first floor and there was constant noise from the second floor. We heard people walking upstairs until about 5am. It was hard to sleep through. The second night the police were there and there was an arrest. We still had to endure people loudly walking on our roof. Not the best place I've stayed but also not the worst. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r149366145-Motel_6_Dallas_Euless-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>149366145</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Not a good choice!</t>
+  </si>
+  <si>
+    <t>I spent one night at this Motel 6.  Not terribly dirty but run down.  Rock hard beds. The night clerk was offended when I asked if there were any recently refurbished rooms.  I have allergies so I always ask.  NO ammenities.  Coffee in the office 6 to 9am but opted not to partake as it seems locals come in for the coffee...possibly friends of the staff.  Bad karma to say the least.  Pass it up!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d244352-r73824736-Motel_6_Dallas_Euless-Euless_Texas.html</t>
@@ -1178,44 +1420,44 @@
       <c r="A2" t="n">
         <v>5952</v>
       </c>
-      <c r="B2" t="n">
-        <v>169257</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1225,79 +1467,75 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5952</v>
       </c>
-      <c r="B3" t="n">
-        <v>169258</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
         <v>64</v>
       </c>
@@ -1306,48 +1544,40 @@
       <c r="A4" t="n">
         <v>5952</v>
       </c>
-      <c r="B4" t="n">
-        <v>169259</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
       <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1367,112 +1597,110 @@
       <c r="A5" t="n">
         <v>5952</v>
       </c>
-      <c r="B5" t="n">
-        <v>169260</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>77</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
         <v>79</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>80</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5952</v>
       </c>
-      <c r="B6" t="n">
-        <v>169261</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1486,64 +1714,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5952</v>
       </c>
-      <c r="B7" t="n">
-        <v>3923</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1551,182 +1777,174 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5952</v>
       </c>
-      <c r="B8" t="n">
-        <v>169262</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5952</v>
       </c>
-      <c r="B9" t="n">
-        <v>169263</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5952</v>
       </c>
-      <c r="B10" t="n">
-        <v>169264</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>119</v>
-      </c>
       <c r="O10" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1740,440 +1958,406 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5952</v>
       </c>
-      <c r="B11" t="n">
-        <v>17748</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5952</v>
       </c>
-      <c r="B12" t="n">
-        <v>169265</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
         <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5952</v>
       </c>
-      <c r="B13" t="n">
-        <v>169266</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5952</v>
       </c>
-      <c r="B14" t="n">
-        <v>169267</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5952</v>
       </c>
-      <c r="B15" t="n">
-        <v>9507</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>134</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>157</v>
-      </c>
-      <c r="X15" t="s">
-        <v>158</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5952</v>
       </c>
-      <c r="B16" t="n">
-        <v>169268</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5952</v>
       </c>
-      <c r="B17" t="n">
-        <v>14940</v>
-      </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2187,115 +2371,113 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5952</v>
       </c>
-      <c r="B18" t="n">
-        <v>169269</v>
-      </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5952</v>
       </c>
-      <c r="B19" t="n">
-        <v>169270</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2309,64 +2491,62 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5952</v>
       </c>
-      <c r="B20" t="n">
-        <v>72256</v>
-      </c>
-      <c r="C20" t="s">
-        <v>189</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2374,137 +2554,119 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5952</v>
       </c>
-      <c r="B21" t="n">
-        <v>57940</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>111</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5952</v>
       </c>
-      <c r="B22" t="n">
-        <v>169271</v>
-      </c>
-      <c r="C22" t="s">
-        <v>204</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
         <v>5</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2512,78 +2674,1048 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5952</v>
       </c>
-      <c r="B23" t="n">
-        <v>21536</v>
-      </c>
-      <c r="C23" t="s">
-        <v>211</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>193</v>
+      </c>
+      <c r="X23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>206</v>
+      </c>
+      <c r="X25" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
         <v>212</v>
       </c>
-      <c r="G23" t="s">
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" t="s">
-        <v>213</v>
-      </c>
-      <c r="J23" t="s">
-        <v>214</v>
-      </c>
-      <c r="K23" t="s">
-        <v>215</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="I27" t="s">
         <v>216</v>
       </c>
-      <c r="M23" t="n">
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" t="s">
+        <v>121</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>257</v>
+      </c>
+      <c r="X33" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>261</v>
+      </c>
+      <c r="J34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" t="s">
+        <v>264</v>
+      </c>
+      <c r="M34" t="n">
         <v>3</v>
       </c>
-      <c r="N23" t="s">
-        <v>217</v>
-      </c>
-      <c r="O23" t="s">
-        <v>120</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="N34" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>271</v>
+      </c>
+      <c r="O35" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="R23" t="n">
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
         <v>4</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
         <v>4</v>
       </c>
-      <c r="T23" t="s"/>
-      <c r="U23" t="n">
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" t="n">
         <v>3</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s">
-        <v>216</v>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" t="s">
+        <v>288</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5952</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>295</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
